--- a/src/main/java/knowledgeBase/AllLanguages.xlsx
+++ b/src/main/java/knowledgeBase/AllLanguages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Languages</t>
   </si>
@@ -25,101 +25,290 @@
     <t>Stops</t>
   </si>
   <si>
-    <t>Lokono</t>
-  </si>
-  <si>
-    <t>i ɨ e o a</t>
-  </si>
-  <si>
-    <t>wiki = phoible</t>
-  </si>
-  <si>
-    <t>Krenak</t>
-  </si>
-  <si>
-    <t>i ĩ ɨ u ũ o ə ɛ ɛ̃ ɔ ɔ̃ a ã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q'eqchi' </t>
-  </si>
-  <si>
     <t>i e o u a</t>
   </si>
   <si>
-    <t>Highland Chontal</t>
-  </si>
-  <si>
-    <t>wiki. dif</t>
-  </si>
-  <si>
-    <t>Bodega Miwok</t>
-  </si>
-  <si>
     <t>Choctaw</t>
   </si>
   <si>
-    <t>i ĩ o õ a ã</t>
-  </si>
-  <si>
     <t>Yem</t>
   </si>
   <si>
-    <t>Sai Gumuz</t>
-  </si>
-  <si>
-    <t>phoible</t>
-  </si>
-  <si>
     <t>Nara</t>
   </si>
   <si>
     <t>i ɪ u ʊ e ə ɛ o ɔ ɑ ʌ</t>
   </si>
   <si>
-    <t>phoible. allophones</t>
-  </si>
-  <si>
-    <t>Ko (Fungor)</t>
-  </si>
-  <si>
     <t>Abidji</t>
   </si>
   <si>
-    <t>i ĩ ɨ u ũ e ẽ o õ ɛ ɛ̃ ɔ ɔ̃ a ã  ʊ ʊ̃ ɪ ɪ̃</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Ket</t>
   </si>
   <si>
     <t>i ɨ u ɛ e ə ɔ o a</t>
   </si>
   <si>
-    <t>Юганский хантыйский</t>
-  </si>
-  <si>
     <t>Nidzh Udi</t>
   </si>
   <si>
-    <t>i iˤ y u uˤ ɛ ɛˤ œ ə ɔ ɔˤ æ ɑ ɑˤ</t>
-  </si>
-  <si>
     <t>Are'are (Waiahaa)</t>
   </si>
   <si>
-    <t>i y ɯ u e ø o æ ɑ œ ɔ ĕ ø̆ ɑ̆ ŏ</t>
-  </si>
-  <si>
-    <t>not found</t>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>i u ɑ ɛ ɔ</t>
+  </si>
+  <si>
+    <t>p b t d k g</t>
+  </si>
+  <si>
+    <t>v s z ʃ ʒ x ɣ h</t>
+  </si>
+  <si>
+    <t>d͡z d͡ʒ</t>
+  </si>
+  <si>
+    <t>m n</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Georgian_language</t>
+  </si>
+  <si>
+    <t>Itelmen</t>
+  </si>
+  <si>
+    <t>i e o u a ə</t>
+  </si>
+  <si>
+    <t>p t k q</t>
+  </si>
+  <si>
+    <t>ɸ β s z x χ</t>
+  </si>
+  <si>
+    <t>t͡ʃ</t>
+  </si>
+  <si>
+    <t>m n ŋ ɲ j</t>
+  </si>
+  <si>
+    <t>l ʎ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Itelmen_language</t>
+  </si>
+  <si>
+    <t>p t k ʔ</t>
+  </si>
+  <si>
+    <t>s h</t>
+  </si>
+  <si>
+    <t>m n w</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%27Are%27are_language</t>
+  </si>
+  <si>
+    <t>i ĩ o õ a ã ə</t>
+  </si>
+  <si>
+    <t>p b t k ʔ</t>
+  </si>
+  <si>
+    <t>f s ɬ ʃ h</t>
+  </si>
+  <si>
+    <t>tʃ</t>
+  </si>
+  <si>
+    <t>m n j w</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Choctaw_language</t>
+  </si>
+  <si>
+    <t>ATTENTION y=j</t>
+  </si>
+  <si>
+    <t>Q'eqchi'</t>
+  </si>
+  <si>
+    <t>p b t d k g q ʔ</t>
+  </si>
+  <si>
+    <t>s ʃ x h</t>
+  </si>
+  <si>
+    <t>tʃ ts</t>
+  </si>
+  <si>
+    <t>ɾ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Q%CA%BCeqchi%CA%BC_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konda </t>
+  </si>
+  <si>
+    <t>p b k g t̪ d̪ ʈ ɖ</t>
+  </si>
+  <si>
+    <t>s z h</t>
+  </si>
+  <si>
+    <t>m n ŋ ɳ j w</t>
+  </si>
+  <si>
+    <t>r ɾ</t>
+  </si>
+  <si>
+    <t>https://phoible.org/inventories/view/1745</t>
+  </si>
+  <si>
+    <t>Malto</t>
+  </si>
+  <si>
+    <t>p b t d ʈ ɖ k g q</t>
+  </si>
+  <si>
+    <t>ð s ɣ h</t>
+  </si>
+  <si>
+    <t>m n ŋ ɲ</t>
+  </si>
+  <si>
+    <t>ɽ r</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Malto_language</t>
+  </si>
+  <si>
+    <t>Nivkh</t>
+  </si>
+  <si>
+    <t>i u a o ɨ</t>
+  </si>
+  <si>
+    <t>f v s z x ɣ χ ʁ h</t>
+  </si>
+  <si>
+    <t>m n ŋ ɲ j w</t>
+  </si>
+  <si>
+    <t>r r̥</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nivkh_languages</t>
+  </si>
+  <si>
+    <t>p b t d k g ʔ</t>
+  </si>
+  <si>
+    <t>f s z š h</t>
+  </si>
+  <si>
+    <t>m n ŋ ň j w</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/21899834/Phonology_of_Yem_Phonological_processes</t>
+  </si>
+  <si>
+    <t>i y u ɛ œ ə ɔ æ ɑ</t>
+  </si>
+  <si>
+    <t>p b t d k g q</t>
+  </si>
+  <si>
+    <t>f v s z ʃ ʒ χ ʁ h</t>
+  </si>
+  <si>
+    <t>d͡z d͡ʒ tʃ ts</t>
+  </si>
+  <si>
+    <t>m n j</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Udi_language</t>
+  </si>
+  <si>
+    <t>wiki x ɣ = list χ ʁ</t>
+  </si>
+  <si>
+    <t>i ĩ ɨ u ũ e ẽ o õ ɛ ɛ̃ ɔ ɔ̃ a ã ʊ ʊ̃ ɪ ɪ̃</t>
+  </si>
+  <si>
+    <t>m n j w ɲ</t>
+  </si>
+  <si>
+    <t>https://phoible.org/inventories/view/649</t>
+  </si>
+  <si>
+    <t>непонятно</t>
+  </si>
+  <si>
+    <t>m n ŋ</t>
+  </si>
+  <si>
+    <t>ɮ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ket_language</t>
+  </si>
+  <si>
+    <t>p b k g t d t̪ d̪</t>
+  </si>
+  <si>
+    <t>f s z h</t>
+  </si>
+  <si>
+    <t>https://phoible.org/inventories/view/2203</t>
+  </si>
+  <si>
+    <t>Gurindji</t>
+  </si>
+  <si>
+    <t>i u a y</t>
+  </si>
+  <si>
+    <t>k p t</t>
+  </si>
+  <si>
+    <t>m n ng j w</t>
+  </si>
+  <si>
+    <t>https://phoible.org/inventories/view/2853</t>
+  </si>
+  <si>
+    <t>Fricatives</t>
+  </si>
+  <si>
+    <t>Affricates</t>
+  </si>
+  <si>
+    <t>Sonorant</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Vibrant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +316,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,50 +338,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -203,26 +381,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,20 +708,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,162 +736,402 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="E10" t="s">
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="I15" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -711,6 +1139,22 @@
       <c r="C17" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="I14" r:id="rId6"/>
+    <hyperlink ref="I4" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="I12" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/knowledgeBase/AllLanguages.xlsx
+++ b/src/main/java/knowledgeBase/AllLanguages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
   <si>
     <t>Languages</t>
   </si>
@@ -302,6 +302,189 @@
   </si>
   <si>
     <t>Vibrant</t>
+  </si>
+  <si>
+    <t>Nuer</t>
+  </si>
+  <si>
+    <t>i u a ɑ ɛ o ɔ æ</t>
+  </si>
+  <si>
+    <t>p b t̪ d̪ t d c ɟ k g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m n̪ n ɲ ŋ j</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nuer_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/nus</t>
+  </si>
+  <si>
+    <t>Fur</t>
+  </si>
+  <si>
+    <t>i e o u a ɛ ɔ</t>
+  </si>
+  <si>
+    <t>p b t d ɟ k g</t>
+  </si>
+  <si>
+    <t>m n ɲ ŋ j w</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fur_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/fvr</t>
+  </si>
+  <si>
+    <t>Daza</t>
+  </si>
+  <si>
+    <t>i u e ɛ o ɔ a</t>
+  </si>
+  <si>
+    <t>b t d k g</t>
+  </si>
+  <si>
+    <t>f s z ʃ h</t>
+  </si>
+  <si>
+    <t>tʃ dʒ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Daza_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/dzg</t>
+  </si>
+  <si>
+    <t>Afitti</t>
+  </si>
+  <si>
+    <t>i e o u a ɛ ə</t>
+  </si>
+  <si>
+    <t>b t d c ɟ k g</t>
+  </si>
+  <si>
+    <t>f s</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Afitti_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/aft</t>
+  </si>
+  <si>
+    <t>Ik</t>
+  </si>
+  <si>
+    <t>i e o ɔ u a ɛ ə</t>
+  </si>
+  <si>
+    <t>p b t d k g ɓ ɗ ʄ ɠ kʼ</t>
+  </si>
+  <si>
+    <t>f s z ʃ ʒ</t>
+  </si>
+  <si>
+    <t>tʃ dʒ d͡z</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ik_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/ikx</t>
+  </si>
+  <si>
+    <t>Tennet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i u e ɛ o a ʌ ɔ ı </t>
+  </si>
+  <si>
+    <t>p ɓ t ɗ k ɠ</t>
+  </si>
+  <si>
+    <t>v ð ɣ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tennet_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/tex</t>
+  </si>
+  <si>
+    <t>Midob</t>
+  </si>
+  <si>
+    <t>p b t d c ɟ k g</t>
+  </si>
+  <si>
+    <t>f s ʃ h</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Midob_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/mei</t>
+  </si>
+  <si>
+    <t>Seri</t>
+  </si>
+  <si>
+    <t>i ɛ o ɑ æ</t>
+  </si>
+  <si>
+    <t>ɸ s ɬ ʃ x χ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Seri_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/sei</t>
+  </si>
+  <si>
+    <t>Cocopa</t>
+  </si>
+  <si>
+    <t>i e o u a ə y</t>
+  </si>
+  <si>
+    <t>s ʃ x</t>
+  </si>
+  <si>
+    <t>m n ɲ j w</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cocopah_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/coc</t>
+  </si>
+  <si>
+    <t>Hopi</t>
+  </si>
+  <si>
+    <t>i ɨ ɛ o ø a</t>
+  </si>
+  <si>
+    <t>p t k q ʔ</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hopi_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/hop</t>
   </si>
 </sst>
 </file>
@@ -325,18 +508,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -357,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -366,15 +543,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -385,24 +565,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -708,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,28 +940,28 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -785,80 +969,80 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J5" t="s">
@@ -866,31 +1050,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -898,25 +1082,25 @@
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -924,25 +1108,25 @@
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -950,107 +1134,107 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1058,22 +1242,22 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1081,25 +1265,25 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1107,36 +1291,328 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1154,6 +1630,26 @@
     <hyperlink ref="I8" r:id="rId12"/>
     <hyperlink ref="I12" r:id="rId13"/>
     <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="J16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I16" r:id="rId17"/>
+    <hyperlink ref="J17" r:id="rId18"/>
+    <hyperlink ref="J18" r:id="rId19"/>
+    <hyperlink ref="I18" r:id="rId20"/>
+    <hyperlink ref="I19" r:id="rId21"/>
+    <hyperlink ref="J19" r:id="rId22"/>
+    <hyperlink ref="J20" r:id="rId23"/>
+    <hyperlink ref="I20" r:id="rId24"/>
+    <hyperlink ref="I21" r:id="rId25"/>
+    <hyperlink ref="J21" r:id="rId26"/>
+    <hyperlink ref="J22" r:id="rId27"/>
+    <hyperlink ref="I22" r:id="rId28"/>
+    <hyperlink ref="J23" r:id="rId29"/>
+    <hyperlink ref="I23" r:id="rId30"/>
+    <hyperlink ref="I24" r:id="rId31"/>
+    <hyperlink ref="J24" r:id="rId32"/>
+    <hyperlink ref="I25" r:id="rId33"/>
+    <hyperlink ref="J25" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/knowledgeBase/AllLanguages.xlsx
+++ b/src/main/java/knowledgeBase/AllLanguages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
   <si>
     <t>Languages</t>
   </si>
@@ -485,13 +485,130 @@
   </si>
   <si>
     <t>http://www.language-archives.org/language/hop</t>
+  </si>
+  <si>
+    <t>Huichol</t>
+  </si>
+  <si>
+    <t>i e u a</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Huichol_language</t>
+  </si>
+  <si>
+    <t>http://cla.berkeley.edu/item.php?bndlid=845</t>
+  </si>
+  <si>
+    <t>Samoan</t>
+  </si>
+  <si>
+    <t>f v s h</t>
+  </si>
+  <si>
+    <t>(r)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Samoan_language</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>p b t k</t>
+  </si>
+  <si>
+    <t>m n ŋ w</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gilbertese_language</t>
+  </si>
+  <si>
+    <t>Rukai Budai</t>
+  </si>
+  <si>
+    <t>i ə a u o</t>
+  </si>
+  <si>
+    <t>p b t d k g ɖ</t>
+  </si>
+  <si>
+    <t>v θ ð s</t>
+  </si>
+  <si>
+    <t>t͡s</t>
+  </si>
+  <si>
+    <t>m n ŋ j w</t>
+  </si>
+  <si>
+    <t>l ɭ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rukai_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/dru</t>
+  </si>
+  <si>
+    <t>Atayal Mayrinax</t>
+  </si>
+  <si>
+    <t>i e ə a u o</t>
+  </si>
+  <si>
+    <t>β s x ɣ h</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Atayal_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/tay</t>
+  </si>
+  <si>
+    <t>Motu</t>
+  </si>
+  <si>
+    <t>v s ɣ h</t>
+  </si>
+  <si>
+    <t>ɺ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Motu_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/meu</t>
+  </si>
+  <si>
+    <t>Nengone</t>
+  </si>
+  <si>
+    <t>i u e o ɛ ɔ a</t>
+  </si>
+  <si>
+    <t>p b t d ʈ ɖ k g ʔ</t>
+  </si>
+  <si>
+    <t>θ s z ʃ ɣ h</t>
+  </si>
+  <si>
+    <t>m m̥ n n̥ ɲ ŋ j w</t>
+  </si>
+  <si>
+    <t>ɭ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nengone_language</t>
+  </si>
+  <si>
+    <t>http://www.language-archives.org/language/nen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,8 +624,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +682,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,6 +751,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -892,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1552,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -1370,7 +1582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -1402,7 +1614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -1432,7 +1644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -1464,7 +1676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -1496,7 +1708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>135</v>
       </c>
@@ -1526,7 +1738,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -1552,7 +1764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -1584,29 +1796,29 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="4" t="s">
         <v>155</v>
       </c>
@@ -1614,7 +1826,264 @@
         <v>156</v>
       </c>
     </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J26:M26"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
@@ -1650,7 +2119,20 @@
     <hyperlink ref="J24" r:id="rId32"/>
     <hyperlink ref="I25" r:id="rId33"/>
     <hyperlink ref="J25" r:id="rId34"/>
+    <hyperlink ref="I26" r:id="rId35"/>
+    <hyperlink ref="J26" r:id="rId36"/>
+    <hyperlink ref="I27" r:id="rId37"/>
+    <hyperlink ref="I28" r:id="rId38"/>
+    <hyperlink ref="I29" r:id="rId39"/>
+    <hyperlink ref="J29" r:id="rId40"/>
+    <hyperlink ref="I30" r:id="rId41"/>
+    <hyperlink ref="J30" r:id="rId42"/>
+    <hyperlink ref="I31" r:id="rId43"/>
+    <hyperlink ref="J31" r:id="rId44"/>
+    <hyperlink ref="I32" r:id="rId45"/>
+    <hyperlink ref="J32" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/src/main/java/knowledgeBase/AllLanguages.xlsx
+++ b/src/main/java/knowledgeBase/AllLanguages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="201">
   <si>
     <t>Languages</t>
   </si>
@@ -602,6 +602,21 @@
   </si>
   <si>
     <t>http://www.language-archives.org/language/nen</t>
+  </si>
+  <si>
+    <t>Noon</t>
+  </si>
+  <si>
+    <t>Baka</t>
+  </si>
+  <si>
+    <t>Sherbro</t>
+  </si>
+  <si>
+    <t>Degema</t>
+  </si>
+  <si>
+    <t>Bambara</t>
   </si>
 </sst>
 </file>
@@ -660,7 +675,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,8 +712,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -724,12 +751,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,9 +810,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -773,9 +817,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,6 +838,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,232 +1886,357 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="26" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>162</v>
       </c>
       <c r="E27" s="23"/>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>167</v>
       </c>
       <c r="G28" s="23"/>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="30" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="33" t="s">
         <v>184</v>
       </c>
       <c r="E31" s="23"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="33" t="s">
         <v>185</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="34" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="30" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
